--- a/GameConfigs/Datas/Characters/hero.xlsx
+++ b/GameConfigs/Datas/Characters/hero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ModularSurvivor\GameConfigs\Datas\Characters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64FA30-A8A3-4399-A763-DFF5F128D88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73123F30-B0E1-41EB-B8C6-13A6466D6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28710" yWindow="660" windowWidth="21840" windowHeight="13800" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
+    <workbookView xWindow="3615" yWindow="5760" windowWidth="28800" windowHeight="15345" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>力量成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_asset_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level:Characters:ActorDragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,9 +201,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -207,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925149D-7F94-4491-8C3C-719644955913}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -535,9 +553,10 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +575,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,8 +598,11 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -596,8 +621,11 @@
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -613,8 +641,11 @@
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -630,6 +661,13 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameConfigs/Datas/Characters/hero.xlsx
+++ b/GameConfigs/Datas/Characters/hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73123F30-B0E1-41EB-B8C6-13A6466D6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07697A2E-338E-484F-8C8F-B6EE3AF3BBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="5760" windowWidth="28800" windowHeight="15345" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
+    <workbookView xWindow="3195" yWindow="10410" windowWidth="28800" windowHeight="14805" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yitong Hu</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5A31B31D-4723-4A52-BFDD-BB8D36D18EC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yitong Hu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hero
+Enemy</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +165,22 @@
   </si>
   <si>
     <t>Level:Characters:ActorDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit.GroupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +203,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,12 +263,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,20 +598,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925149D-7F94-4491-8C3C-719644955913}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925149D-7F94-4491-8C3C-719644955913}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -570,12 +629,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -593,12 +655,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -616,12 +681,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -635,13 +703,16 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -655,22 +726,22 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameConfigs/Datas/Characters/hero.xlsx
+++ b/GameConfigs/Datas/Characters/hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07697A2E-338E-484F-8C8F-B6EE3AF3BBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3EABA4-C527-4C17-90F8-3791EAA52511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="10410" windowWidth="28800" windowHeight="14805" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
+    <workbookView xWindow="39405" yWindow="11340" windowWidth="28800" windowHeight="15345" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,26 @@
   </si>
   <si>
     <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleMove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925149D-7F94-4491-8C3C-719644955913}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,10 +632,12 @@
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,16 +654,22 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -661,13 +689,19 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -684,16 +718,22 @@
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -707,16 +747,22 @@
         <v>27</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -730,12 +776,18 @@
         <v>27</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/GameConfigs/Datas/Characters/hero.xlsx
+++ b/GameConfigs/Datas/Characters/hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3EABA4-C527-4C17-90F8-3791EAA52511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C40E28-F526-4F1D-A4F7-13941E11EC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39405" yWindow="11340" windowWidth="28800" windowHeight="15345" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
+    <workbookView xWindow="2955" yWindow="11520" windowWidth="28800" windowHeight="15345" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,22 @@
   </si>
   <si>
     <t>SimpleMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level:ActorConfigs:AbilityConfigHeroLaserStrike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(array#sep=,),string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability config key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925149D-7F94-4491-8C3C-719644955913}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,9 +651,10 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
     <col min="10" max="10" width="37.5" customWidth="1"/>
+    <col min="11" max="11" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +685,11 @@
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,8 +720,11 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -732,8 +755,11 @@
       <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -761,8 +787,11 @@
       <c r="J4" t="s">
         <v>23</v>
       </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -789,6 +818,9 @@
       </c>
       <c r="J5" t="s">
         <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/GameConfigs/Datas/Characters/hero.xlsx
+++ b/GameConfigs/Datas/Characters/hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C40E28-F526-4F1D-A4F7-13941E11EC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA534F-BA53-4B9D-BB88-DCE124202735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="11520" windowWidth="28800" windowHeight="15345" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
+    <workbookView xWindow="38535" yWindow="3945" windowWidth="26070" windowHeight="15345" xr2:uid="{65D75327-87D2-43B9-9515-7EEF86814E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>ability config key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exp_bonuses </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925149D-7F94-4491-8C3C-719644955913}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,12 +661,12 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="37.5" customWidth="1"/>
-    <col min="11" max="11" width="43.375" customWidth="1"/>
+    <col min="9" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="37.5" customWidth="1"/>
+    <col min="12" max="12" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,13 +695,16 @@
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,13 +733,16 @@
         <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -753,13 +771,16 @@
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -784,14 +805,17 @@
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -816,10 +840,13 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
     </row>
